--- a/semtle_login_test.xlsx
+++ b/semtle_login_test.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="C2" s="1" t="n">
-        <v>44955.70572790119</v>
+        <v>44956.61575140388</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/semtle_login_test.xlsx
+++ b/semtle_login_test.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,9 +466,45 @@
         </is>
       </c>
       <c r="C2" s="1" t="n">
-        <v>44956.61575140388</v>
+        <v>44956.63740765639</v>
       </c>
       <c r="D2" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ID 입력 오류</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>44956.63754145844</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>PW 입력 오류</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>44956.63773199105</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>True</t>
         </is>

--- a/semtle_login_test.xlsx
+++ b/semtle_login_test.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="C2" s="1" t="n">
-        <v>44956.63740765639</v>
+        <v>44956.66310055659</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -484,7 +484,7 @@
         </is>
       </c>
       <c r="C3" s="1" t="n">
-        <v>44956.63754145844</v>
+        <v>44956.66345779201</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="C4" s="1" t="n">
-        <v>44956.63773199105</v>
+        <v>44956.66366575926</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>

--- a/semtle_login_test.xlsx
+++ b/semtle_login_test.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,7 +426,9 @@
   <cols>
     <col width="20" customWidth="1" min="2" max="2"/>
     <col width="40" customWidth="1" min="3" max="3"/>
-    <col width="105" customWidth="1" min="5" max="5"/>
+    <col width="40" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="105" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -437,20 +439,30 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>시나리오</t>
+          <t>테스트 케이스</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>입력 값</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>기대 값</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>날짜</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>합격 여부</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>오류 코드</t>
         </is>
@@ -465,10 +477,20 @@
           <t>정상 시나리오</t>
         </is>
       </c>
-      <c r="C2" s="1" t="n">
-        <v>44956.66310055659</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>['201500011', 't1234']</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
+        <is>
+          <t>로그인 성공</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>44959.03990276021</v>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>True</t>
         </is>
@@ -483,10 +505,20 @@
           <t>ID 입력 오류</t>
         </is>
       </c>
-      <c r="C3" s="1" t="n">
-        <v>44956.66345779201</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>['', 't1234']</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
+        <is>
+          <t>로그인 실패 알림창 등장</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>44959.04022881437</v>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>True</t>
         </is>
@@ -501,10 +533,48 @@
           <t>PW 입력 오류</t>
         </is>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>44956.66366575926</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>['201500011', '']</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
+        <is>
+          <t>로그인 실패 알림창 등장</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>44959.04041949964</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>존재 하지 않는 계정 로그인</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>['NoAccount', 'NoAccount']</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>로그인 실패 알림창 등장</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>44959.04061461536</v>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>True</t>
         </is>

--- a/semtle_login_test.xlsx
+++ b/semtle_login_test.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,6 +467,11 @@
           <t>오류 코드</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>비고</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -488,7 +493,7 @@
         </is>
       </c>
       <c r="E2" s="1" t="n">
-        <v>44959.03990276021</v>
+        <v>44959.05944990617</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -516,7 +521,7 @@
         </is>
       </c>
       <c r="E3" s="1" t="n">
-        <v>44959.04022881437</v>
+        <v>44959.05976941016</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -544,7 +549,7 @@
         </is>
       </c>
       <c r="E4" s="1" t="n">
-        <v>44959.04041949964</v>
+        <v>44959.05995619764</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -572,7 +577,7 @@
         </is>
       </c>
       <c r="E5" s="1" t="n">
-        <v>44959.04061461536</v>
+        <v>44959.06014168654</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>

--- a/semtle_login_test.xlsx
+++ b/semtle_login_test.xlsx
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="E2" s="1" t="n">
-        <v>44959.05944990617</v>
+        <v>44960.71073493818</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="E3" s="1" t="n">
-        <v>44959.05976941016</v>
+        <v>44960.7110596364</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="E4" s="1" t="n">
-        <v>44959.05995619764</v>
+        <v>44960.71125645726</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="E5" s="1" t="n">
-        <v>44959.06014168654</v>
+        <v>44960.71145311057</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
